--- a/pcb/react4/Outputs/2021-04-01/BOM-react4.xlsx
+++ b/pcb/react4/Outputs/2021-04-01/BOM-react4.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\react4\pcb\react4\Outputs\2021-04-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47EAE39-A443-4F81-85B7-7D6F9C6B421F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4622FEB-40C6-4384-BE9F-F9929B0F3CF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="345" windowWidth="20760" windowHeight="11835" xr2:uid="{814160DF-F3A5-4BE6-9948-CB3236F901FA}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{814160DF-F3A5-4BE6-9948-CB3236F901FA}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-react4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM-react4'!$A$1:$G$22</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM-react4'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -340,10 +341,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,7 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,14 +401,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,522 +730,524 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>6</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>4</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="271" scale="10" orientation="landscape" blackAndWhite="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>